--- a/output/xlsx/test.xlsx
+++ b/output/xlsx/test.xlsx
@@ -357,7 +357,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="n" s="14">
-        <v>42981.72665600695</v>
+        <v>42996.5683275</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -383,7 +383,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="n" s="14">
-        <v>42981.72665619213</v>
+        <v>42996.56832755787</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
@@ -409,7 +409,7 @@
         <v>21</v>
       </c>
       <c r="F5" t="n" s="14">
-        <v>42981.72665619213</v>
+        <v>42996.56832761574</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -435,7 +435,7 @@
         <v>21</v>
       </c>
       <c r="F6" t="n" s="14">
-        <v>42981.72665619213</v>
+        <v>42996.56832769676</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
@@ -461,7 +461,7 @@
         <v>21</v>
       </c>
       <c r="F7" t="n" s="14">
-        <v>42981.72665619213</v>
+        <v>42996.568327824076</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
